--- a/help/Address_data-formatted.xlsx
+++ b/help/Address_data-formatted.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonic\Desktop\Hackathon\address-formatter\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C7D0BA9C-C6D2-481A-9954-4E067AA0442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E07F6-08DC-4FA6-9FC4-633796457A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address_data-formatted" sheetId="1" r:id="rId1"/>
@@ -5722,7 +5722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6565,11 +6565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/help/Address_data-formatted.xlsx
+++ b/help/Address_data-formatted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonic\Desktop\Hackathon\address-formatter\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E07F6-08DC-4FA6-9FC4-633796457A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CCB51-B32F-46E9-BF1C-634FF55E3746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5859,7 +5859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6039,6 +6039,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6200,7 +6212,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6209,6 +6221,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6569,14 +6587,14 @@
   <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
@@ -6626,7 +6644,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6652,10 +6670,10 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -6798,7 +6816,7 @@
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6861,7 +6879,7 @@
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6927,7 +6945,7 @@
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -6973,7 +6991,7 @@
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -7239,7 +7257,7 @@
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -7282,7 +7300,7 @@
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -7514,7 +7532,7 @@
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
